--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1129998.131342673</v>
+        <v>-1131896.363446797</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>97.95458917342837</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>121.7930935553003</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>234.8189020160745</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>317.4908965236059</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>22.96159132124588</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.86740133315033</v>
       </c>
     </row>
     <row r="5">
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>232.7336973966492</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>145.7193814678359</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16.91544265059222</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>168.4743637384531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>371.9173433125558</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.3798404720798</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>73.41805918135805</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.1845037767897</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>15.52415699980586</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.31883033602919</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>24.48862620664458</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.9766879784589</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>166.9438950833106</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>31.01809037626777</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>60.83190844218957</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>18.67952670034493</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,10 +2533,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>196.8588188382649</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>101.1057214040792</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>122.6519788371597</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885718</v>
       </c>
       <c r="E31" t="n">
         <v>78.30207251692849</v>
@@ -2968,7 +2968,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463189</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789601</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3910,7 +3910,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1248.755904852536</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>879.7933879121244</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>879.7933879121244</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>494.0051353138802</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2519.09707472518</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2265.335289363271</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2265.335289363271</v>
+        <v>1974.99031838373</v>
       </c>
       <c r="W2" t="n">
-        <v>1912.566634093157</v>
+        <v>1622.221663113616</v>
       </c>
       <c r="X2" t="n">
-        <v>1591.868758816787</v>
+        <v>1248.755904852536</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.868758816787</v>
+        <v>1248.755904852536</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>704.9354576193172</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>477.6272702879189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>477.6272702879189</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1757.312204670903</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="C5" t="n">
-        <v>1388.349687730491</v>
+        <v>1392.451751317823</v>
       </c>
       <c r="D5" t="n">
-        <v>1030.083989123741</v>
+        <v>1034.186052711073</v>
       </c>
       <c r="E5" t="n">
-        <v>1030.083989123741</v>
+        <v>1034.186052711073</v>
       </c>
       <c r="F5" t="n">
-        <v>619.0980843341331</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>201.13427623232</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2147.451536646714</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.451536646714</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.312204670903</v>
+        <v>1761.414268258235</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.5356891811371</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1914.44116270037</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>1914.44116270037</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2267.209817970484</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1914.44116270037</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1914.44116270037</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.44116270037</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464703</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="D10" t="n">
-        <v>97.69838933464703</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>285.8510101265798</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>285.8510101265798</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,22 +5024,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5048,10 +5048,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253976</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>247.3337308726216</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033467</v>
+        <v>1483.235303891432</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663861</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="X13" t="n">
-        <v>391.9645427683688</v>
+        <v>1193.818133854471</v>
       </c>
       <c r="Y13" t="n">
-        <v>391.9645427683688</v>
+        <v>973.0255547109412</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5370,13 +5370,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4612303381598</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C16" t="n">
-        <v>394.5250474102529</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102529</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1163.185170967962</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>908.5006827620753</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.423997082767</v>
+        <v>908.5006827620753</v>
       </c>
       <c r="X16" t="n">
-        <v>870.4344461847497</v>
+        <v>908.5006827620753</v>
       </c>
       <c r="Y16" t="n">
-        <v>649.6418670412196</v>
+        <v>687.7081036185451</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5516,7 +5516,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126628</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>562.3990000507114</v>
+        <v>379.4370268152254</v>
       </c>
       <c r="C19" t="n">
-        <v>562.3990000507114</v>
+        <v>379.4370268152254</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>379.4370268152254</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>379.4370268152254</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>232.5470793173151</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>232.5470793173151</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>1106.500658293559</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>851.8161700876719</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>562.3990000507114</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X19" t="n">
-        <v>562.3990000507114</v>
+        <v>781.8780707889953</v>
       </c>
       <c r="Y19" t="n">
-        <v>562.3990000507114</v>
+        <v>561.0854916454651</v>
       </c>
     </row>
     <row r="20">
@@ -5729,34 +5729,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2279.445761859783</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2484.468242641992</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>503.5547239186418</v>
+        <v>425.8564518307254</v>
       </c>
       <c r="C22" t="n">
-        <v>503.5547239186418</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D22" t="n">
-        <v>503.5547239186418</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>1013.764473099133</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V22" t="n">
-        <v>1013.764473099133</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W22" t="n">
-        <v>724.3473030621719</v>
+        <v>874.6385818722729</v>
       </c>
       <c r="X22" t="n">
-        <v>724.3473030621719</v>
+        <v>646.6490309742555</v>
       </c>
       <c r="Y22" t="n">
-        <v>503.5547239186418</v>
+        <v>425.8564518307254</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6005,7 +6005,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6102,7 +6102,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>410.8883413288165</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C25" t="n">
-        <v>410.8883413288165</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6154,13 +6154,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>820.5263570570736</v>
+        <v>965.2084601534104</v>
       </c>
       <c r="W25" t="n">
-        <v>820.5263570570736</v>
+        <v>675.7912901164499</v>
       </c>
       <c r="X25" t="n">
-        <v>592.5368061590563</v>
+        <v>447.8017392184325</v>
       </c>
       <c r="Y25" t="n">
-        <v>592.5368061590563</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6212,25 +6212,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6242,16 +6242,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,16 +6279,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F27" t="n">
         <v>358.2718071316295</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>349.4607221898733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>349.4607221898733</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>199.3440827775376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>199.3440827775376</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6391,13 +6391,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V28" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W28" t="n">
-        <v>531.109187020113</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X28" t="n">
-        <v>531.109187020113</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>531.109187020113</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,40 +6452,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2103.010087623274</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103134</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982979</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,40 +6689,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M33" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103134</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6911,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,31 +7114,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,19 +7163,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,7 +7354,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7436,22 +7436,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2013.406634128704</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083206</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7603,13 +7603,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010317</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>806.1650729342614</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1113.485206214223</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1443.347833878256</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>253.7371603504752</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165131</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.7842838544522</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.49733361305314</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,28 +9717,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>76.43196988338491</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>145.2351313103792</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>230.7151863772038</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928343</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10434,22 +10434,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>8.406710013101758</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>169.2863157167183</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>38.86002301949884</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>148.2747143566559</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>92.93335645406039</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52.24020415486313</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.64747640514756</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>236.6134863240221</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>94.5131498459081</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>261.7487261919327</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>14.93714038907723</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23938,25 +23938,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>119.2934573152667</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>136.2287307223601</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>225.4054439563878</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>129.9359463178674</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24421,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>55.27882448556315</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>44.31532661885203</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-5.897504706808832e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>142387.7480708446</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262497</v>
+        <v>143682.3097262498</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262497</v>
       </c>
       <c r="E2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="F2" t="n">
         <v>136860.1709081982</v>
       </c>
       <c r="G2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="H2" t="n">
-        <v>136860.1709081981</v>
+        <v>136860.1709081982</v>
       </c>
       <c r="I2" t="n">
         <v>136860.1709081981</v>
       </c>
       <c r="J2" t="n">
-        <v>136860.1709081982</v>
+        <v>136860.1709081981</v>
       </c>
       <c r="K2" t="n">
+        <v>143682.3097262492</v>
+      </c>
+      <c r="L2" t="n">
+        <v>143682.3097262493</v>
+      </c>
+      <c r="M2" t="n">
         <v>143682.3097262497</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>143682.3097262496</v>
       </c>
-      <c r="M2" t="n">
-        <v>143682.3097262495</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262495</v>
-      </c>
       <c r="O2" t="n">
-        <v>143682.3097262494</v>
+        <v>143682.3097262496</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262496</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.209268702950794e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,40 +26418,40 @@
         <v>143694.8020290737</v>
       </c>
       <c r="C4" t="n">
+        <v>147917.0487159209</v>
+      </c>
+      <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
-      <c r="D4" t="n">
-        <v>147917.0487159209</v>
-      </c>
       <c r="E4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007537</v>
+        <v>7916.73165600754</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007539</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007489</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007454</v>
       </c>
       <c r="K4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="M4" t="n">
         <v>30335.51889732799</v>
       </c>
-      <c r="M4" t="n">
-        <v>30335.51889732797</v>
-      </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732801</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26485,7 +26485,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,10 +26494,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-674134.011236183</v>
+        <v>-674152.5049741174</v>
       </c>
       <c r="C6" t="n">
-        <v>-87093.81705308057</v>
+        <v>-87093.81705308054</v>
       </c>
       <c r="D6" t="n">
-        <v>-87093.81705308059</v>
+        <v>-87093.81705308055</v>
       </c>
       <c r="E6" t="n">
-        <v>-488203.9231734219</v>
+        <v>-488301.3822993941</v>
       </c>
       <c r="F6" t="n">
-        <v>36956.11330347406</v>
+        <v>36858.65417750193</v>
       </c>
       <c r="G6" t="n">
-        <v>36956.11330347398</v>
+        <v>36858.65417750184</v>
       </c>
       <c r="H6" t="n">
-        <v>36956.11330347399</v>
+        <v>36858.65417750186</v>
       </c>
       <c r="I6" t="n">
-        <v>36956.11330347396</v>
+        <v>36858.65417750165</v>
       </c>
       <c r="J6" t="n">
-        <v>-139467.1058891189</v>
+        <v>-139564.5650150911</v>
       </c>
       <c r="K6" t="n">
-        <v>-38873.82709481618</v>
+        <v>-38873.82709481675</v>
       </c>
       <c r="L6" t="n">
+        <v>15631.68500889596</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-119169.3302249408</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15631.68500889618</v>
+      </c>
+      <c r="O6" t="n">
         <v>15631.68500889625</v>
       </c>
-      <c r="M6" t="n">
-        <v>-119169.330224941</v>
-      </c>
-      <c r="N6" t="n">
-        <v>15631.68500889614</v>
-      </c>
-      <c r="O6" t="n">
-        <v>15631.68500889605</v>
-      </c>
       <c r="P6" t="n">
-        <v>-38873.82709481638</v>
+        <v>-38873.8270948163</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,25 +26753,25 @@
         <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>308.9214565682831</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>94.65522680235753</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>189.183947628773</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>181.7172520189445</v>
       </c>
     </row>
     <row r="5">
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>174.1423483450622</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>178.2033912965212</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>162.9165375313451</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>50.11028961364164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>10.81649835092475</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>39.30320114860319</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>103.1161092074294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>72.0029888415732</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31844,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31853,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33114,10 +33114,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>564.1615374009414</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35738,16 +35738,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>560.035498861915</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145259</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
-        <v>140.5103663981272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>409.6265432813979</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>394.4928362664036</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>437.8086013087286</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221134</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>318.8310870635681</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>451.6500179578265</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>321.223725260607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>397.5324193126801</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
